--- a/data/trans_camb/POLIPATOLOGIA_5-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA_5-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>2.115351150746095</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-0.1028673584351152</v>
+        <v>-0.1028673584351145</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>2.886341196878337</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.005983488978115</v>
+        <v>-1.079834613365089</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.8029095213505983</v>
+        <v>-0.6807357895963514</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.679667734330482</v>
+        <v>-2.625243393773602</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-1.593501521175979</v>
+        <v>-1.479428387191299</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>1.941832987779927</v>
+        <v>1.804697727493044</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-4.163012339624888</v>
+        <v>-4.374110297832627</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.5103893141922563</v>
+        <v>-0.3580848931793232</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>1.696655972019382</v>
+        <v>1.636395140353697</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-2.708022936778081</v>
+        <v>-2.076955019539082</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.877476433521546</v>
+        <v>4.974074916331808</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.350026330762874</v>
+        <v>5.684930819681004</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.17216913820878</v>
+        <v>2.263116830325477</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7.845193363695606</v>
+        <v>7.549361674733477</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>11.9009961290986</v>
+        <v>12.61680076699305</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.466786342456784</v>
+        <v>3.128834408930205</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>5.057933905276196</v>
+        <v>5.144860556600843</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>7.755453646181838</v>
+        <v>7.618544930754043</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.854571153790732</v>
+        <v>2.097873476264044</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>0.8166603751882845</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.03971335704931021</v>
+        <v>-0.03971335704930994</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.4662863076549886</v>
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.3327912174726626</v>
+        <v>-0.3302658316181283</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2978526840904211</v>
+        <v>-0.2469323298572776</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.6598990637149836</v>
+        <v>-0.6346003136722859</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.237069037825333</v>
+        <v>-0.1956648263861555</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1771531614986246</v>
+        <v>0.1766835544691083</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.4780795912996544</v>
+        <v>-0.4790065597358115</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.1252548991713172</v>
+        <v>-0.0667799855228285</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.2432792383975245</v>
+        <v>0.2732554382086068</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.4428677429239712</v>
+        <v>-0.3761312274124731</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>3.71452182590271</v>
+        <v>4.092054790928689</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>3.427224827449199</v>
+        <v>4.095237697740933</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.768442627110814</v>
+        <v>2.005387962186491</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.879738952035811</v>
+        <v>1.820209521872008</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.932964524852331</v>
+        <v>3.122059843094348</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9041640155785993</v>
+        <v>0.8288389580802648</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.527195388878441</v>
+        <v>1.628379414950625</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>2.51700647518997</v>
+        <v>2.423476626424475</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.6282997613406162</v>
+        <v>0.7306944613893086</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.8667467991706892</v>
+        <v>-0.8109408964245621</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-3.877155223693169</v>
+        <v>-3.749784855611307</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1119834423523574</v>
+        <v>0.2808867157745727</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-6.058836098605997</v>
+        <v>-5.807506919573647</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-9.150564501642291</v>
+        <v>-9.208244639374159</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-1.502790112467927</v>
+        <v>-1.774068268360222</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-2.376755824407614</v>
+        <v>-2.431995675705</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-5.82120483090233</v>
+        <v>-5.513485796269974</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2014182769992016</v>
+        <v>-0.05002747086686753</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.564788884914542</v>
+        <v>4.887097147314964</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1920239171819721</v>
+        <v>0.2857910233439379</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.518523486714414</v>
+        <v>5.840801397893217</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.610118461894658</v>
+        <v>1.793443946819753</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-2.40326870776311</v>
+        <v>-2.022829274498327</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>5.647919134615826</v>
+        <v>5.549479436114798</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.587726463108562</v>
+        <v>2.355179250912049</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>-1.582433528840681</v>
+        <v>-1.539984366469657</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>4.851961274977836</v>
+        <v>4.71578296410634</v>
       </c>
     </row>
     <row r="13">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.2667735797885013</v>
+        <v>-0.2233185413408625</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.8129023763885482</v>
+        <v>-0.8240067782617</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.05366785892738633</v>
+        <v>-0.01882153531294281</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4470185719745665</v>
+        <v>-0.4407882502107487</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6813176368954649</v>
+        <v>-0.6803022686626277</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.1132741766869696</v>
+        <v>-0.132081640789758</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.2891409505033957</v>
+        <v>-0.2903345930163095</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6846068227840759</v>
+        <v>-0.6587218110447381</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.008977831176343553</v>
+        <v>-0.01485487700767965</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.009509856741578</v>
+        <v>2.291475490915014</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.2175428806763302</v>
+        <v>0.2419536265304845</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.635754958309132</v>
+        <v>2.759826009629012</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.171791202768159</v>
+        <v>0.1963242056098551</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.2195113539513495</v>
+        <v>-0.1922161762145896</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6172249889072688</v>
+        <v>0.6208958826209081</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4292453141975958</v>
+        <v>0.3792674322534286</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>-0.2508682963346432</v>
+        <v>-0.2350895460484539</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.7797699874399285</v>
+        <v>0.7624384715104959</v>
       </c>
     </row>
     <row r="16">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.2503903055006839</v>
+        <v>-0.2059236866388987</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-1.283193159342895</v>
+        <v>-1.234002510922205</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7.832837665027563</v>
+        <v>8.307915718454401</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.929798919496159</v>
+        <v>2.563142043761649</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.8510441846988789</v>
+        <v>0.74641299147875</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>11.19577026633757</v>
+        <v>11.24221029275111</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.859618856449952</v>
+        <v>1.916085284689786</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3277467088656795</v>
+        <v>0.3304214327845302</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>10.71283531104688</v>
+        <v>10.63985386376887</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.462823632196966</v>
+        <v>4.452695603191022</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.973068972366916</v>
+        <v>1.925419287033758</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>14.80444057008832</v>
+        <v>14.95779052706824</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9.639381894064265</v>
+        <v>10.00766240438785</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>7.480227716573415</v>
+        <v>7.833889997469658</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>18.26640232456758</v>
+        <v>18.35116159311337</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>6.279810848112642</v>
+        <v>6.057457732404033</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>4.092940002955933</v>
+        <v>4.164406428334207</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>15.65118446091538</v>
+        <v>15.60975993969737</v>
       </c>
     </row>
     <row r="19">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.4619327684108157</v>
+        <v>-0.4689966009277916</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.7462771189212917</v>
+        <v>-0.7198259277219068</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>2.852225094546378</v>
+        <v>3.344634969221557</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.6528440256978465</v>
+        <v>0.5579552198862946</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.02774851919947907</v>
+        <v>0.02901392878350824</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>2.557156166101573</v>
+        <v>2.659537544697033</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6109574559464628</v>
+        <v>0.6671552864532414</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.07060537131690879</v>
+        <v>0.08565502615179732</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>3.636395558518597</v>
+        <v>3.906729064403033</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>9.91706117196064</v>
+        <v>11.40413112579332</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>5.065215139109199</v>
+        <v>4.926382570660809</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>40.4814131350221</v>
+        <v>43.80544117382566</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>6.419561884023956</v>
+        <v>7.488792068022225</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>4.826178262885562</v>
+        <v>5.750988085343772</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>14.32984443853964</v>
+        <v>15.2239472057677</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>5.506143935711672</v>
+        <v>5.47917812648777</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>3.715020590939518</v>
+        <v>3.750309232018904</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>14.95922919739505</v>
+        <v>15.82980686097215</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>6.002763384570706</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>9.539817423923713</v>
+        <v>9.53981742392371</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.940497466853493</v>
+        <v>-1.206406196257699</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.1839443136983033</v>
+        <v>-0.06166437423895712</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>4.019687899944279</v>
+        <v>3.960016322470435</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5.600804337067394</v>
+        <v>6.123622893207303</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>5.284960005297192</v>
+        <v>5.015967533541129</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>8.088860528278603</v>
+        <v>7.976924560120811</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>3.49327759138449</v>
+        <v>3.132470723898344</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>3.51919582742568</v>
+        <v>3.798057654341959</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>7.23107182937512</v>
+        <v>6.980363163899265</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.561975126026079</v>
+        <v>4.36861294991327</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.711909654949386</v>
+        <v>5.646645401550382</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>11.25360908562158</v>
+        <v>10.50831950593373</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>14.01835368613753</v>
+        <v>14.18265784242293</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>13.71133304067332</v>
+        <v>13.73740445594155</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>14.86588027444379</v>
+        <v>15.00727213174075</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>8.418926181309885</v>
+        <v>8.412269793290763</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>8.753071025688392</v>
+        <v>8.897405324299402</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>12.02881529116037</v>
+        <v>11.93246879074799</v>
       </c>
     </row>
     <row r="25">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.3268687569292003</v>
+        <v>-0.3923080811587843</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1088060025397695</v>
+        <v>-0.1071298149164528</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.8700949543197208</v>
+        <v>0.8609949393032191</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.9141109010874846</v>
+        <v>0.9995434583022169</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.8646215704211913</v>
+        <v>0.7949982720144175</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1.278145917523495</v>
+        <v>1.268888524890901</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7931436365570036</v>
+        <v>0.7051739105639515</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.7603857895573757</v>
+        <v>0.8320652273252159</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>1.555867967698319</v>
+        <v>1.491014191119708</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>2.70850625897102</v>
+        <v>2.996855658499486</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>3.946835934187767</v>
+        <v>3.894339221434817</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>7.404049003688264</v>
+        <v>7.165489826397215</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>5.029892514696129</v>
+        <v>5.279932466845048</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>4.803034506695147</v>
+        <v>4.729085215844988</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>5.733386055826966</v>
+        <v>5.515695546465557</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>3.652771337659292</v>
+        <v>3.397155435552496</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>3.542144696733779</v>
+        <v>3.639926626318106</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>5.108656508575891</v>
+        <v>5.085298728194086</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>2.219202701909333</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>6.539560452351584</v>
+        <v>6.539560452351581</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>12.41106327884942</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>2.734967842070323</v>
+        <v>2.337098567817324</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.018059987638877</v>
+        <v>-0.8202241312902776</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3.022043354559311</v>
+        <v>2.698194702267751</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6.377073072223295</v>
+        <v>5.723582227764207</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.7047871052180669</v>
+        <v>0.2336067336160594</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>7.49641427351371</v>
+        <v>7.18056685012598</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>5.379325043448597</v>
+        <v>5.80355977124372</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.5573149135609261</v>
+        <v>0.788262102823567</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>6.519846366243651</v>
+        <v>6.688330814843664</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>11.66839714982281</v>
+        <v>11.26311988943852</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>5.43529931016337</v>
+        <v>6.140080735097793</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>10.24271673292975</v>
+        <v>9.90945111188466</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>18.81993404059829</v>
+        <v>18.27516803482594</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>10.99603567122214</v>
+        <v>10.65062455296109</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>16.70183695823479</v>
+        <v>16.27440287562134</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>13.05058532748567</v>
+        <v>13.42636216473448</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>7.224806720787057</v>
+        <v>7.209016329144588</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>12.39508679140781</v>
+        <v>12.18976294077587</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.9729842504957028</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>2.867196096971318</v>
+        <v>2.867196096971317</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>2.467047287617404</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.4867842994685697</v>
+        <v>0.3879493540483732</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.415924284204308</v>
+        <v>-0.3504861871259279</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.5503075084873763</v>
+        <v>0.4244479313278003</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.7334118469194862</v>
+        <v>0.5986549975319889</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.0009420476967892395</v>
+        <v>-0.05692043689944185</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.875954962167285</v>
+        <v>0.7711051549434865</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9413598379442178</v>
+        <v>1.014926226401124</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.0835217523113117</v>
+        <v>0.09913085628151071</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>1.052723835762326</v>
+        <v>1.165378376685695</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>11.44077278073083</v>
+        <v>12.38435769653375</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>5.489717704956559</v>
+        <v>7.243993143861564</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>10.42241057021473</v>
+        <v>10.18592317668781</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>6.77222934500498</v>
+        <v>6.232295021009983</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>4.015872964201787</v>
+        <v>3.714884673848661</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>5.98318823673095</v>
+        <v>6.377602578844725</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>5.500735098762034</v>
+        <v>5.489664689845148</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>3.088465539357881</v>
+        <v>3.145700416906627</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>5.544647448324504</v>
+        <v>5.302957627360602</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>2.289702382316936</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>23.57728163501924</v>
+        <v>23.57728163501922</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>3.599330269623469</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>2.597598259392321</v>
+        <v>2.640039873525447</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>1.947550779632988</v>
+        <v>1.853421768234041</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>13.43317690712643</v>
+        <v>13.60721310413355</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-1.957970799318076</v>
+        <v>-1.882662757828949</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-1.464441299921792</v>
+        <v>-1.805215100732466</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>18.70007495170591</v>
+        <v>18.77823741872943</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>1.243517390035642</v>
+        <v>1.384324619950872</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>0.7127465901601384</v>
+        <v>0.729759428129257</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>16.94400950621332</v>
+        <v>17.22816261432564</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>7.873832029446999</v>
+        <v>8.205341586242341</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>6.594442810017381</v>
+        <v>6.668007618054288</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>20.62224645478423</v>
+        <v>20.85287283311321</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>6.129290096016605</v>
+        <v>5.854883160695493</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>6.701146709783385</v>
+        <v>6.23694935499028</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>27.95931854677107</v>
+        <v>28.20898920489719</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>5.966360047689835</v>
+        <v>5.999002217775977</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>5.543444796432778</v>
+        <v>5.255460820595763</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>23.06149991513568</v>
+        <v>23.07619436813446</v>
       </c>
     </row>
     <row r="37">
@@ -1836,7 +1836,7 @@
         <v>0.5280588750144202</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>5.43747209778772</v>
+        <v>5.437472097787716</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>1.63829483161575</v>
@@ -1859,22 +1859,22 @@
       <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="inlineStr"/>
       <c r="F38" s="6" t="n">
-        <v>-0.3035314390315252</v>
+        <v>-0.334795848283394</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.2984126426595284</v>
+        <v>-0.3402876433427481</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>2.500470521125814</v>
+        <v>2.723916470308162</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3336151292830319</v>
+        <v>0.3677105411326011</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.1481742444902216</v>
+        <v>0.1334534305946482</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>4.776882588488522</v>
+        <v>4.90604451506808</v>
       </c>
     </row>
     <row r="39">
@@ -1888,22 +1888,22 @@
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="inlineStr"/>
       <c r="F39" s="6" t="n">
-        <v>2.309984104428057</v>
+        <v>2.144819596429509</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>2.557437151363376</v>
+        <v>2.390059356314105</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>11.68631321392489</v>
+        <v>11.57225587351624</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>4.478876741404989</v>
+        <v>4.915076412559208</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>4.253819438764171</v>
+        <v>3.750139042196371</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>18.12533979241405</v>
+        <v>17.4723219025871</v>
       </c>
     </row>
     <row r="40">
@@ -1953,31 +1953,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-2.104378480748261</v>
+        <v>-2.079283579070493</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-1.273348664538819</v>
+        <v>-1.195165594184376</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>3.853668909446407</v>
+        <v>3.693360737102876</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1.288750078769918</v>
+        <v>1.009978126808627</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>1.789282537917755</v>
+        <v>2.154987298317004</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>13.85387389159863</v>
+        <v>13.86477086169841</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>0.2583484733447398</v>
+        <v>0.3930325245092022</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>1.120659045831114</v>
+        <v>1.189223692177376</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>9.638921828019653</v>
+        <v>9.702186868133815</v>
       </c>
     </row>
     <row r="42">
@@ -1988,31 +1988,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>1.715039073554331</v>
+        <v>2.053395529429683</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>3.072676517105976</v>
+        <v>3.41046230903959</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>8.957299754270673</v>
+        <v>8.86515025745107</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>7.058979355489349</v>
+        <v>7.139920325291799</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>7.659277411266181</v>
+        <v>8.216408540256676</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>20.19778529307949</v>
+        <v>20.19824267405921</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>4.064807676919937</v>
+        <v>4.115452582019817</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>4.7973615362293</v>
+        <v>5.124602732885917</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>13.7774854362036</v>
+        <v>13.89350150921822</v>
       </c>
     </row>
     <row r="43">
@@ -2047,7 +2047,7 @@
         <v>0.6665109978711501</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>2.583214847526087</v>
+        <v>2.583214847526088</v>
       </c>
     </row>
     <row r="44">
@@ -2058,31 +2058,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.5106105443010406</v>
+        <v>-0.4909815928812785</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.3314189027071379</v>
+        <v>-0.2759513269485896</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.8080893976271624</v>
+        <v>0.8427378543000796</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.166398842269129</v>
+        <v>0.1288507041953909</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.236601235552528</v>
+        <v>0.2742622661454524</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>1.870680262152996</v>
+        <v>1.807023845017127</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.03623032076123166</v>
+        <v>0.06648692045854865</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.1953748015557404</v>
+        <v>0.1980943944365353</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>1.758427297271017</v>
+        <v>1.750143174231837</v>
       </c>
     </row>
     <row r="45">
@@ -2093,31 +2093,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.7618437593332245</v>
+        <v>0.8651535041785149</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>1.280107843359188</v>
+        <v>1.499353542611994</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>3.988522488258453</v>
+        <v>3.86530575533946</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1.562102041300067</v>
+        <v>1.580935859219385</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>1.633576588186106</v>
+        <v>1.898330286041976</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>4.62881012157756</v>
+        <v>4.462780849237057</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>1.068031333149628</v>
+        <v>1.13489751274757</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>1.263127619751121</v>
+        <v>1.361938482225227</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>3.849251475304252</v>
+        <v>3.674564617983579</v>
       </c>
     </row>
     <row r="46">
@@ -2147,7 +2147,7 @@
         <v>2.046948146704208</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>3.649995538049122</v>
+        <v>3.649995538049124</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>-2.89879473303765</v>
@@ -2167,31 +2167,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-7.308358941363357</v>
+        <v>-7.231448335813647</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-5.803176008561351</v>
+        <v>-5.712308262664885</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-3.204728198209968</v>
+        <v>-2.919821808968757</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-3.994230266236647</v>
+        <v>-3.417494067095489</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-1.161311506655577</v>
+        <v>-1.128890325036592</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>0.7839081440396461</v>
+        <v>0.7216836058618334</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-4.684808595690103</v>
+        <v>-4.740411334502596</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-2.399484332356435</v>
+        <v>-2.488761526529999</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-0.4998739057757057</v>
+        <v>-0.25418273542252</v>
       </c>
     </row>
     <row r="48">
@@ -2202,31 +2202,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>-3.294406302569196</v>
+        <v>-3.274301869742216</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-1.284028715523387</v>
+        <v>-1.287802737346867</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1.687977876757549</v>
+        <v>1.580772475986593</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>1.797551417955481</v>
+        <v>2.358466429867518</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>5.577634306393758</v>
+        <v>5.008991928888666</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>6.321534782239387</v>
+        <v>6.145023431304499</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>-1.175391046616927</v>
+        <v>-1.139083490333527</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>1.428516758142121</v>
+        <v>1.265286860020237</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>3.363251327735902</v>
+        <v>3.484342236800778</v>
       </c>
     </row>
     <row r="49">
@@ -2252,7 +2252,7 @@
         <v>0.2319233733974129</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.4135518915966867</v>
+        <v>0.4135518915966869</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>-0.3656693602487627</v>
@@ -2272,31 +2272,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.8629081748595708</v>
+        <v>-0.8591028276048583</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.6976860149760289</v>
+        <v>-0.6902420499987584</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.37322420486189</v>
+        <v>-0.3563426028957655</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.3685029361002432</v>
+        <v>-0.3332836777646717</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.1066191045147997</v>
+        <v>-0.1109748079202282</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.07150150217308211</v>
+        <v>0.06591522613357818</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.5317298275731484</v>
+        <v>-0.528904733380376</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.2716828497865841</v>
+        <v>-0.2879489931136166</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.05416297512106867</v>
+        <v>-0.02826733667404309</v>
       </c>
     </row>
     <row r="51">
@@ -2307,31 +2307,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>-0.5162015801485149</v>
+        <v>-0.5484312866587139</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.2010791326675655</v>
+        <v>-0.2008146579150823</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.3021225539982788</v>
+        <v>0.2801083074817665</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.2478535269589458</v>
+        <v>0.3275436688341741</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.7684470608588407</v>
+        <v>0.6579699245319034</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.8635630830442086</v>
+        <v>0.8430423453363269</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>-0.1737511190040029</v>
+        <v>-0.1596964812653002</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.2072337007921356</v>
+        <v>0.1823791805977754</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.4954340365627463</v>
+        <v>0.5013674707833166</v>
       </c>
     </row>
     <row r="52">
@@ -2352,7 +2352,7 @@
         <v>0.1068083411705396</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>4.982720053527584</v>
+        <v>4.982720053527583</v>
       </c>
       <c r="F52" s="5" t="n">
         <v>3.160194112422454</v>
@@ -2361,7 +2361,7 @@
         <v>3.09086956325979</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>9.683625302167117</v>
+        <v>9.683625302167115</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>1.799935999496088</v>
@@ -2381,31 +2381,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-0.5806759370273757</v>
+        <v>-0.4831400478054188</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-0.7490418011058427</v>
+        <v>-0.7398954957958445</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>3.936366292350775</v>
+        <v>3.883040114250232</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>1.868788126801127</v>
+        <v>1.728789313328089</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>1.570408155568383</v>
+        <v>1.67067516708186</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>8.340636479774133</v>
+        <v>8.340100800924695</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>0.9332524757349596</v>
+        <v>0.9634820772659748</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>0.8380621221777098</v>
+        <v>0.7995521752478545</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>6.570442530842964</v>
+        <v>6.553138241331233</v>
       </c>
     </row>
     <row r="54">
@@ -2416,31 +2416,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>1.258363690059552</v>
+        <v>1.296859731740173</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>1.021305370598101</v>
+        <v>0.9645541933863581</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>6.078835661249318</v>
+        <v>6.0152181197178</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>4.551809456045055</v>
+        <v>4.496307818678113</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>4.473409049486089</v>
+        <v>4.568300581077354</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>10.98413005646824</v>
+        <v>10.92312602141718</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>2.572859030424866</v>
+        <v>2.63147316213156</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>2.508342790163127</v>
+        <v>2.430272189610895</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>8.292133118141463</v>
+        <v>8.28362889224841</v>
       </c>
     </row>
     <row r="55">
@@ -2486,31 +2486,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.1476712575512753</v>
+        <v>-0.1283959828792567</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.1935464164235813</v>
+        <v>-0.1988972623649715</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>1.018220373244018</v>
+        <v>0.9934198095563863</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.2539142533322335</v>
+        <v>0.2465089072211967</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.2083543764238682</v>
+        <v>0.218244069393203</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>1.117840450760049</v>
+        <v>1.115792657617241</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.1698163536070771</v>
+        <v>0.1777953167939458</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.1577337262249947</v>
+        <v>0.1448311621330715</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>1.169908457910118</v>
+        <v>1.185923558454982</v>
       </c>
     </row>
     <row r="57">
@@ -2521,31 +2521,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.4137811754594837</v>
+        <v>0.4350208538519528</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.3363937464645098</v>
+        <v>0.3183343483617171</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>2.068544744433684</v>
+        <v>1.989732667769005</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.752102190004718</v>
+        <v>0.7526565520881207</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.7326580554290186</v>
+        <v>0.743202652455542</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>1.839062730097304</v>
+        <v>1.80077571072467</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.5410628658894309</v>
+        <v>0.5656568071656644</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.5383166861210942</v>
+        <v>0.5155171660450194</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>1.782883803365356</v>
+        <v>1.778122401882751</v>
       </c>
     </row>
     <row r="58">
